--- a/mcmaster_excel/Thread-Locking_Pan_Head_Phillips_Screws.xlsx
+++ b/mcmaster_excel/Thread-Locking_Pan_Head_Phillips_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,134 +434,100 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Thread LockerTemperature Range, °F</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr"/>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.116"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.044"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>No. 0</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-55° to 120°</t>
+          <t>Thread LockerTemperature Range, °F</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>96562A911</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>$8.11</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0-80</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -576,17 +542,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.167"</t>
+          <t>0.116"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.062"</t>
+          <t>0.044"</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -611,17 +577,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>96562A912</t>
+          <t>96562A911</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>$8.11</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>0-80</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -633,7 +599,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5/32"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -678,12 +644,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>96562A913</t>
+          <t>96562A912</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -700,7 +666,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>5/32"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -740,17 +706,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>96562A914</t>
+          <t>96562A913</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>8.08</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -767,7 +733,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -782,7 +748,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.063"</t>
+          <t>0.062"</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -797,7 +763,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-70° to 250°</t>
+          <t>-55° to 120°</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -812,12 +778,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>96562A020</t>
+          <t>96562A914</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>7.74</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -834,7 +800,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -849,7 +815,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.062"</t>
+          <t>0.063"</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -879,12 +845,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>96562A915</t>
+          <t>96562A020</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -901,7 +867,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -916,7 +882,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.063"</t>
+          <t>0.062"</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -946,12 +912,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>96562A024</t>
+          <t>96562A915</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -968,7 +934,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1013,12 +979,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>96562A028</t>
+          <t>96562A024</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>9.72</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1035,7 +1001,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1050,7 +1016,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.062"</t>
+          <t>0.063"</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1080,12 +1046,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>96562A916</t>
+          <t>96562A028</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>9.72</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1102,7 +1068,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1147,12 +1113,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>96562A917</t>
+          <t>96562A916</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>10.40</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1169,7 +1135,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1179,12 +1145,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.219"</t>
+          <t>0.167"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.080"</t>
+          <t>0.062"</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1199,32 +1165,32 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-55° to 120°</t>
+          <t>-70° to 250°</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, IFI 124 Standards</t>
+          <t>ASME B18.6.3</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>96562A604</t>
+          <t>96562A917</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>11.40</t>
+          <t>10.40</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>2-56</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1236,7 +1202,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1281,12 +1247,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>96562A605</t>
+          <t>96562A604</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>11.60</t>
+          <t>11.40</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1303,7 +1269,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1333,27 +1299,27 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-70° to 250°</t>
+          <t>-55° to 120°</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>ASME B18.6.3, IFI 124 Standards</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>96562A106</t>
+          <t>96562A605</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1370,7 +1336,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1415,12 +1381,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>96562A601</t>
+          <t>96562A106</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>8.44</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1437,7 +1403,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1482,12 +1448,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>96562A108</t>
+          <t>96562A601</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>7.62</t>
+          <t>8.44</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1504,7 +1470,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1549,12 +1515,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>96562A918</t>
+          <t>96562A108</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>7.62</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1571,7 +1537,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1616,12 +1582,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>96562A110</t>
+          <t>96562A918</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1638,7 +1604,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1678,17 +1644,17 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>96562A112</t>
+          <t>96562A110</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>7.98</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1705,7 +1671,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1750,12 +1716,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>96562A113</t>
+          <t>96562A112</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1772,7 +1738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1817,12 +1783,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>96562A919</t>
+          <t>96562A113</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1839,7 +1805,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1884,12 +1850,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>96562A921</t>
+          <t>96562A919</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1906,7 +1872,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1951,12 +1917,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>96562A922</t>
+          <t>96562A921</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1973,7 +1939,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2018,12 +1984,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>96562A923</t>
+          <t>96562A922</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2040,7 +2006,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2050,17 +2016,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.219"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.097"</t>
+          <t>0.080"</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2070,12 +2036,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-55° to 120°</t>
+          <t>-70° to 250°</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, IFI 124 Standards</t>
+          <t>ASME B18.6.3</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2085,17 +2051,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>96562A606</t>
+          <t>96562A923</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>11.70</t>
+          <t>9.58</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2107,7 +2073,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2127,7 +2093,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2137,27 +2103,27 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-70° to 250°</t>
+          <t>-55° to 120°</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>ASME B18.6.3, IFI 124 Standards</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>96562A144</t>
+          <t>96562A606</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>7.77</t>
+          <t>11.70</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2174,7 +2140,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2219,12 +2185,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>96562A602</t>
+          <t>96562A144</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>9.87</t>
+          <t>7.77</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2241,7 +2207,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2286,12 +2252,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>96562A146</t>
+          <t>96562A602</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>9.87</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2308,7 +2274,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2353,12 +2319,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>96562A924</t>
+          <t>96562A146</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2375,7 +2341,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2420,12 +2386,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>96562A148</t>
+          <t>96562A924</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>8.64</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2442,7 +2408,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2487,7 +2453,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>96562A150</t>
+          <t>96562A148</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2509,7 +2475,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2549,17 +2515,17 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>96562A151</t>
+          <t>96562A150</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>8.64</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2576,7 +2542,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2621,12 +2587,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>96562A925</t>
+          <t>96562A151</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2643,7 +2609,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2688,12 +2654,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>96562A153</t>
+          <t>96562A925</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2710,7 +2676,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1 1/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2755,12 +2721,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>96562A926</t>
+          <t>96562A153</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>6.42</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2777,7 +2743,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1 1/8"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2822,12 +2788,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>96562A927</t>
+          <t>96562A926</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2844,7 +2810,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2889,12 +2855,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>96562A157</t>
+          <t>96562A927</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>7.59</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2911,7 +2877,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2921,12 +2887,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.322"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.097"</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2951,22 +2917,22 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>96562A603</t>
+          <t>96562A157</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>10.12</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -2978,7 +2944,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3023,12 +2989,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>96562A928</t>
+          <t>96562A603</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>10.70</t>
+          <t>10.12</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3045,7 +3011,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3085,17 +3051,17 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>96562A192</t>
+          <t>96562A928</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>10.70</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3112,7 +3078,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3157,12 +3123,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>96562A929</t>
+          <t>96562A192</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3179,7 +3145,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3224,12 +3190,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>96562A194</t>
+          <t>96562A929</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3246,7 +3212,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3291,12 +3257,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>96562A196</t>
+          <t>96562A194</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>6.62</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3313,7 +3279,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3358,12 +3324,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>96562A197</t>
+          <t>96562A196</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>6.62</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3380,7 +3346,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3425,12 +3391,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>96562A931</t>
+          <t>96562A197</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3447,7 +3413,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3492,12 +3458,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>96562A199</t>
+          <t>96562A931</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>8.03</t>
+          <t>7.79</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3514,7 +3480,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3559,12 +3525,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>96562A201</t>
+          <t>96562A199</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>8.03</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3581,7 +3547,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3626,12 +3592,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>96562A932</t>
+          <t>96562A201</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3648,7 +3614,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3658,12 +3624,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.373"</t>
+          <t>0.322"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.133"</t>
+          <t>0.115"</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3693,17 +3659,17 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>96562A240</t>
+          <t>96562A932</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -3715,7 +3681,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3760,12 +3726,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>96562A242</t>
+          <t>96562A240</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3782,7 +3748,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3827,12 +3793,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>96562A244</t>
+          <t>96562A242</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>7.09</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3849,7 +3815,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3894,12 +3860,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>96562A245</t>
+          <t>96562A244</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>7.09</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3916,7 +3882,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3961,12 +3927,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>96562A247</t>
+          <t>96562A245</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>9.82</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3983,7 +3949,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4023,17 +3989,17 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>96562A251</t>
+          <t>96562A247</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4050,7 +4016,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4090,22 +4056,22 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>96562A933</t>
+          <t>96562A251</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4117,7 +4083,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4162,12 +4128,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>96562A934</t>
+          <t>96562A933</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>6.53</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4184,7 +4150,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4229,12 +4195,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>96562A827</t>
+          <t>96562A934</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4251,7 +4217,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4296,12 +4262,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>96562A829</t>
+          <t>96562A827</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4318,7 +4284,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4363,12 +4329,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>96562A830</t>
+          <t>96562A829</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>7.09</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4385,7 +4351,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4430,12 +4396,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>96562A831</t>
+          <t>96562A830</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>7.09</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4452,7 +4418,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4497,12 +4463,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>96562A833</t>
+          <t>96562A831</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>8.43</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4519,7 +4485,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4564,12 +4530,12 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>96562A835</t>
+          <t>96562A833</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>8.83</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4586,7 +4552,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4626,17 +4592,17 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>96562A836</t>
+          <t>96562A835</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>8.83</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4653,7 +4619,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4663,17 +4629,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0.492"</t>
+          <t>0.373"</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.175"</t>
+          <t>0.133"</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4698,17 +4664,17 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>96562A935</t>
+          <t>96562A836</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -4720,7 +4686,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4760,17 +4726,17 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>96562A537</t>
+          <t>96562A935</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4787,7 +4753,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4832,12 +4798,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>96562A539</t>
+          <t>96562A537</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>9.58</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4854,7 +4820,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4899,12 +4865,12 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>96562A540</t>
+          <t>96562A539</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>12.46</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4921,7 +4887,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4961,17 +4927,17 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>96562A936</t>
+          <t>96562A540</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>12.46</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4988,7 +4954,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5033,12 +4999,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>96562A542</t>
+          <t>96562A936</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5055,7 +5021,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5100,12 +5066,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>96562A544</t>
+          <t>96562A542</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5122,65 +5088,132 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>1 1/4"</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0.492"</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.175"</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>-70° to 250°</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>96562A544</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
           <t>1 1/2"</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
         <is>
           <t>0.492"</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>0.175"</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>No. 3</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>-70° to 250°</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>-70° to 250°</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>96562A546</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>7.12</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="L72" t="inlineStr">
         <is>
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
+      <c r="M72" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
         </is>
